--- a/Schema.xlsx
+++ b/Schema.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Hotels</t>
   </si>
@@ -38,42 +32,9 @@
     <t>Users</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Amenties</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>chain_id = chain.id</t>
-  </si>
-  <si>
-    <t>HotelAmenities</t>
-  </si>
-  <si>
-    <t>hotel_id = hotel.id</t>
-  </si>
-  <si>
-    <t>amenity_id = amenities.id</t>
-  </si>
-  <si>
-    <t>user_id = user.id</t>
-  </si>
-  <si>
-    <t>Bookings</t>
-  </si>
-  <si>
-    <t>Date_to</t>
-  </si>
-  <si>
-    <t>Date_from</t>
-  </si>
-  <si>
-    <t>city_id = city.id</t>
-  </si>
-  <si>
     <t>Cities</t>
   </si>
   <si>
@@ -86,43 +47,55 @@
     <t>address</t>
   </si>
   <si>
-    <t>Chains</t>
-  </si>
-  <si>
-    <t>Num_bed</t>
-  </si>
-  <si>
-    <t>Num_bath</t>
-  </si>
-  <si>
-    <t>Handicap(Boolean)</t>
-  </si>
-  <si>
-    <t>Rooms</t>
-  </si>
-  <si>
-    <t>Hotel_Rooms</t>
-  </si>
-  <si>
-    <t>hotels_id = hotels.id</t>
-  </si>
-  <si>
-    <t>room_id = rooms.id</t>
-  </si>
-  <si>
-    <t>RoomAmenities</t>
-  </si>
-  <si>
-    <t>hotel_room = hotelrooms.id</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>num_available</t>
-  </si>
-  <si>
-    <t>price = hotel_rooms.price</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>pets</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>UserHotels</t>
+  </si>
+  <si>
+    <t>user_id = users.id</t>
+  </si>
+  <si>
+    <t>hotel_id = hotels.id</t>
+  </si>
+  <si>
+    <t>city_id = cities.id</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>search_city</t>
+  </si>
+  <si>
+    <t>Booking</t>
   </si>
 </sst>
 </file>
@@ -138,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,18 +150,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -199,14 +160,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -229,51 +184,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,268 +599,207 @@
     <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A18:F18"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
